--- a/data/info_gv.xlsx
+++ b/data/info_gv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythonProject\quanlytruonghoc_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7760CBE3-0DC9-4017-BDBD-3BA93737B773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71971ED-B283-4626-A2B6-FE3C6D4F719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09E680E0-CD9C-4069-932C-F47139888F14}"/>
   </bookViews>
@@ -452,60 +452,6 @@
     <t>MÃ GV</t>
   </si>
   <si>
-    <t>GV001</t>
-  </si>
-  <si>
-    <t>GV002</t>
-  </si>
-  <si>
-    <t>GV003</t>
-  </si>
-  <si>
-    <t>GV004</t>
-  </si>
-  <si>
-    <t>GV005</t>
-  </si>
-  <si>
-    <t>GV006</t>
-  </si>
-  <si>
-    <t>GV007</t>
-  </si>
-  <si>
-    <t>GV008</t>
-  </si>
-  <si>
-    <t>GV009</t>
-  </si>
-  <si>
-    <t>GV010</t>
-  </si>
-  <si>
-    <t>GV011</t>
-  </si>
-  <si>
-    <t>GV012</t>
-  </si>
-  <si>
-    <t>GV013</t>
-  </si>
-  <si>
-    <t>GV014</t>
-  </si>
-  <si>
-    <t>GV015</t>
-  </si>
-  <si>
-    <t>GV016</t>
-  </si>
-  <si>
-    <t>GV017</t>
-  </si>
-  <si>
-    <t>GV018</t>
-  </si>
-  <si>
     <t>CHỨC VỤ</t>
   </si>
   <si>
@@ -531,6 +477,60 @@
   </si>
   <si>
     <t>0441000794759</t>
+  </si>
+  <si>
+    <t>GV0001</t>
+  </si>
+  <si>
+    <t>GV0002</t>
+  </si>
+  <si>
+    <t>GV0003</t>
+  </si>
+  <si>
+    <t>GV0004</t>
+  </si>
+  <si>
+    <t>GV0005</t>
+  </si>
+  <si>
+    <t>GV0006</t>
+  </si>
+  <si>
+    <t>GV0007</t>
+  </si>
+  <si>
+    <t>GV0008</t>
+  </si>
+  <si>
+    <t>GV0009</t>
+  </si>
+  <si>
+    <t>GV0010</t>
+  </si>
+  <si>
+    <t>GV0011</t>
+  </si>
+  <si>
+    <t>GV0012</t>
+  </si>
+  <si>
+    <t>GV0013</t>
+  </si>
+  <si>
+    <t>GV0014</t>
+  </si>
+  <si>
+    <t>GV0015</t>
+  </si>
+  <si>
+    <t>GV0016</t>
+  </si>
+  <si>
+    <t>GV0017</t>
+  </si>
+  <si>
+    <t>GV0018</t>
   </si>
 </sst>
 </file>
@@ -3697,7 +3697,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="A1:P1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3731,7 +3731,7 @@
         <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -3752,7 +3752,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
@@ -3781,7 +3781,7 @@
         <v>118</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E2" s="7">
         <v>30016</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>19</v>
@@ -3831,7 +3831,7 @@
         <v>119</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E3" s="15">
         <v>31728</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>24</v>
@@ -3881,7 +3881,7 @@
         <v>120</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E4" s="7">
         <v>30110</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="5" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>31</v>
@@ -3929,7 +3929,7 @@
         <v>121</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>38</v>
@@ -3977,7 +3977,7 @@
         <v>122</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E6" s="7">
         <v>36597</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>45</v>
@@ -4019,7 +4019,7 @@
         <v>123</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E7" s="7">
         <v>32479</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>52</v>
@@ -4067,7 +4067,7 @@
         <v>124</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E8" s="7">
         <v>35596</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>58</v>
@@ -4111,7 +4111,7 @@
         <v>125</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E9" s="7">
         <v>33885</v>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>61</v>
@@ -4149,7 +4149,7 @@
         <v>126</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E10" s="7">
         <v>36523</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>67</v>
@@ -4189,7 +4189,7 @@
         <v>127</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E11" s="15">
         <v>36965</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>73</v>
@@ -4235,7 +4235,7 @@
         <v>128</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E12" s="7">
         <v>35306</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="13" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>79</v>
@@ -4283,7 +4283,7 @@
         <v>129</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E13" s="15">
         <v>36619</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>84</v>
@@ -4325,7 +4325,7 @@
         <v>130</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>85</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>90</v>
@@ -4369,7 +4369,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>91</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>96</v>
@@ -4411,7 +4411,7 @@
         <v>132</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E16" s="29">
         <v>18264</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>99</v>
@@ -4449,7 +4449,7 @@
         <v>133</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E17" s="29">
         <v>32030</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>104</v>
@@ -4493,7 +4493,7 @@
         <v>134</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E18" s="15">
         <v>35923</v>
@@ -4518,7 +4518,7 @@
         <v>109</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="N18" s="28" t="s">
         <v>110</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>112</v>
@@ -4539,7 +4539,7 @@
         <v>135</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E19" s="15">
         <v>33570</v>
